--- a/biology/Microbiologie/Caryospora_(protiste)/Caryospora_(protiste).xlsx
+++ b/biology/Microbiologie/Caryospora_(protiste)/Caryospora_(protiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caryospora est un genre de protistes parasites coccidiens infectant en particulier les serpents et les oiseaux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caryospora est un genre de protistes parasites coccidiens infectant en particulier les serpents et les oiseaux.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des eucaryotes unicellulaires oocystes avec un seul sporocyste octozoïque ; les espèces dont le cycle de vie est connu sont facultativement ou obligatoirement hétéroxènes avec mérogonie et gamogonie dans les hôtes primaires (prédateurs) et secondaires (proies) ; le développement est intestinal dans l'hôte primaire, la sporogonie se produisant généralement, mais pas toujours, de manière exogène ; le développement est non intestinal chez l'hôte secondaire, entraînant une sporogonie endogène et la formation de caryocystes (sporozoïtes dormants) ; les caryocystes contiennent généralement un sporozoïte, mais peuvent en contenir plusieurs qui pénètrent indépendamment dans la cellule hôte ; les oocystes et les caryocystes sont infectieux ; les hôtes primaires sont généralement des reptiles et des oiseaux ; les hôtes secondaires sont des rongeurs, lorsqu'ils sont connus[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des eucaryotes unicellulaires oocystes avec un seul sporocyste octozoïque ; les espèces dont le cycle de vie est connu sont facultativement ou obligatoirement hétéroxènes avec mérogonie et gamogonie dans les hôtes primaires (prédateurs) et secondaires (proies) ; le développement est intestinal dans l'hôte primaire, la sporogonie se produisant généralement, mais pas toujours, de manière exogène ; le développement est non intestinal chez l'hôte secondaire, entraînant une sporogonie endogène et la formation de caryocystes (sporozoïtes dormants) ; les caryocystes contiennent généralement un sporozoïte, mais peuvent en contenir plusieurs qui pénètrent indépendamment dans la cellule hôte ; les oocystes et les caryocystes sont infectieux ; les hôtes primaires sont généralement des reptiles et des oiseaux ; les hôtes secondaires sont des rongeurs, lorsqu'ils sont connus.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce genre et son espèce type Caryospora simplex, parasite de la Vipère aspic, ont été décrits en 1904 par le protistologiste français Louis-Urbain-Eugène Léger, avec l'orthographe Karyospora dans la publication originale[3], changée par la suite par le même auteur en 1911[4].
-Caryospora a pour synonymes[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ce genre et son espèce type Caryospora simplex, parasite de la Vipère aspic, ont été décrits en 1904 par le protistologiste français Louis-Urbain-Eugène Léger, avec l'orthographe Karyospora dans la publication originale, changée par la suite par le même auteur en 1911.
+Caryospora a pour synonymes :
 Eumonospora Allen, 1933
 Karyospora Léger, 1904</t>
         </is>
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>D'après l'Index to Organism Names (15 novembre 2023)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après l'Index to Organism Names (15 novembre 2023) :
 Caryospora aemogregarina
 Caryospora ahaetullae Modry &amp; Koudela, 1994
 Caryospora aquilae Volf, Koudela &amp; Modry, 2000
